--- a/AE Sakib/Narail/2021_22/Bridges/Kalishankar Pur Khal Footoverbridge/Girder Reiforcement Calcualtion/Input_sheet_Dead_Load_Distribution.xlsx
+++ b/AE Sakib/Narail/2021_22/Bridges/Kalishankar Pur Khal Footoverbridge/Girder Reiforcement Calcualtion/Input_sheet_Dead_Load_Distribution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -599,7 +599,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -946,7 +946,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="B15:C15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1010,7 +1010,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
